--- a/备课进度及任务分工2018.xlsx
+++ b/备课进度及任务分工2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>边界值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,14 @@
   </si>
   <si>
     <t>单元测试例子，C++修改成Java（李焕贞）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,7 +818,7 @@
     <col min="10" max="10" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -826,8 +834,14 @@
       <c r="H1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -844,7 +858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>45</v>
       </c>
@@ -855,7 +869,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>47</v>
       </c>
@@ -866,7 +880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>49</v>
       </c>
@@ -877,7 +891,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E6" t="s">
         <v>51</v>
       </c>
@@ -888,7 +902,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
@@ -902,7 +916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -916,7 +930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -939,7 +953,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -959,7 +973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -976,7 +990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -987,7 +1001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1004,7 +1018,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1021,7 +1035,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1063,7 +1077,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>

--- a/备课进度及任务分工2018.xlsx
+++ b/备课进度及任务分工2018.xlsx
@@ -291,12 +291,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,14 +313,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,128 +450,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,13 +465,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,169 +507,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,71 +656,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -750,6 +678,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -763,155 +715,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -920,6 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
@@ -1272,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1375,7 +1369,7 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
@@ -1392,7 +1386,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -1406,7 +1400,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
@@ -1425,11 +1419,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="71.25" customHeight="1" spans="1:9">
+    <row r="10" ht="71.25" customHeight="1" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
@@ -1444,8 +1438,11 @@
       <c r="I10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" ht="72.75" customHeight="1" spans="1:9">
+      <c r="J10" s="4">
+        <v>43352</v>
+      </c>
+    </row>
+    <row r="11" ht="72.75" customHeight="1" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1461,8 +1458,11 @@
       <c r="I11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" ht="24.75" customHeight="1" spans="1:9">
+      <c r="J11" s="4">
+        <v>43352</v>
+      </c>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1471,6 +1471,9 @@
       </c>
       <c r="I12" t="s">
         <v>28</v>
+      </c>
+      <c r="J12" s="4">
+        <v>43352</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1" spans="1:9">
@@ -1528,7 +1531,7 @@
       <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>47</v>
       </c>
       <c r="I16" t="s">
@@ -1567,7 +1570,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C19" t="s">
@@ -1602,7 +1605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="39" customHeight="1" spans="1:10">
+    <row r="22" ht="39" customHeight="1" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1620,6 +1623,9 @@
       </c>
       <c r="J22" t="s">
         <v>60</v>
+      </c>
+      <c r="K22" s="4">
+        <v>43352</v>
       </c>
     </row>
     <row r="23" spans="1:9">
